--- a/DB설계.xlsx
+++ b/DB설계.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KEPCO\기업프로젝트\서류\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5997BF1-17B3-4511-880B-5F4CB1E697FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A6455B-1A17-4D18-BED9-83E3FFF23F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EDC2755-8DDE-41E9-A372-051FA09A660B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,16 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="169">
   <si>
     <t>DB 설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이디(이메일)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비밀번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>재고량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>생일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>결제수단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 상품, 2.교환/환불, 3, 사이트이용 4. 기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문의사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,18 +180,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>의류, 신발, 가방, 추천세제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 회원, 1 탈퇴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이 회원이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,10 +196,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 주문x, 1 주문함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이 상품을 찜 했다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,10 +204,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>몇 개 주문함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0 현금, 1 카드, 2 계좌이체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0 배송전, 1 배송중, 2 배송완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>작성자가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,18 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문의글 비번 쳐야 볼 수 있게 + 수정,삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 공개, 1 비밀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 아직 답변 안 함. 1 답변완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>datetie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,46 +260,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reg_dt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>purchase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>del_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>user_seq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,14 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>category</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -375,22 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sell_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>like_cnt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>product_srq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,14 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>invoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cs_no</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,10 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>secret</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,6 +377,335 @@
   </si>
   <si>
     <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 별 상품 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 별 키워드 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 상세조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 상세 정보 내용 
+확인 하는 사이트 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디(이메일)
+비밀번호
+이름
+주소
+연락처
+생일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알파벳+숫자+특수문자로 이뤄지게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1234-5678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0 회원, 1 탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도로명주소받기 (배송 받을 주소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0 주문x, 1 주문ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주인력개발원 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 몇 개 주문함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0 배송전, 1 배송중, 2 배송완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페트병</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작에 사용된 페트병 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 구매한 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 조회한 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 찜한 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0기타 1상품 2교환/환불 3사이트이용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀글인 경우 비번 입력해야 글 볼 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의사항 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0공개 1비밀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객센터 답변 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의글 seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">문의글 번호 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0답변전 1답변후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_dt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-1234_5678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_invoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default 0기타 1의류 2신발 3가방 4추천세제</t>
+  </si>
+  <si>
+    <t>default 0기타 1의류 2신발 3가방 4추천세제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_pet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_wish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_view</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,8 +752,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -860,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4728087-394D-431D-96F6-C61F8885E17B}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G85" sqref="G85"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -872,7 +1088,7 @@
     <col min="2" max="2" width="14.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
@@ -891,728 +1107,860 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>154</v>
+      </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
         <v>60</v>
-      </c>
-      <c r="E26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" t="s">
         <v>109</v>
       </c>
-      <c r="B32" t="s">
-        <v>117</v>
+      <c r="D32" t="s">
+        <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>109</v>
+      </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" t="s">
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>73</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" t="s">
+        <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" t="s">
         <v>60</v>
-      </c>
-      <c r="E40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" t="s">
-        <v>60</v>
-      </c>
-      <c r="E41" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E45" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E46" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" t="s">
         <v>6</v>
       </c>
-      <c r="D52" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="C53" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
       <c r="D53" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>128</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E56" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" t="s">
+        <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>28</v>
+        <v>118</v>
+      </c>
+      <c r="C58" t="s">
+        <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E59" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="C61" t="s">
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" t="s">
-        <v>60</v>
-      </c>
-      <c r="E62" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E67" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" t="s">
         <v>60</v>
-      </c>
-      <c r="E72" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D73" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="D74" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C75" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="D75" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E75" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="C76" t="s">
+        <v>126</v>
       </c>
       <c r="D76" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E76" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="C77" t="s">
+        <v>127</v>
       </c>
       <c r="D77" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="C78" t="s">
+        <v>128</v>
+      </c>
+      <c r="D78" t="s">
+        <v>52</v>
       </c>
       <c r="E78" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>116</v>
       </c>
       <c r="D79" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E79" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C80" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D80" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>39</v>
-      </c>
-      <c r="D81" t="s">
-        <v>69</v>
-      </c>
-      <c r="E81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>130</v>
+      </c>
       <c r="B82" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="C83" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="D83" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E83" t="s">
-        <v>104</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" t="s">
+        <v>134</v>
+      </c>
+      <c r="D84" t="s">
+        <v>56</v>
+      </c>
+      <c r="E84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" t="s">
+        <v>135</v>
+      </c>
+      <c r="D86" t="s">
+        <v>48</v>
+      </c>
+      <c r="E86" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1620,4 +1968,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90939677-54B8-4585-B3F0-421D5DB77963}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="99" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>